--- a/data/q&a_rag_application.xlsx
+++ b/data/q&a_rag_application.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1066">
   <si>
     <t xml:space="preserve">Context</t>
   </si>
@@ -1309,6 +1309,1920 @@
   </si>
   <si>
     <t xml:space="preserve">The tool can extract more than just HTML content, depending on the configuration and format specified by the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context": "Dive deeper into low-level prompt customization for CrewAI, enabling super custom and complex use cases for different models and languages. Although CrewAI\u2019s default prompts work well for many scenarios, low-level customization opens the door to significantly more flexible and powerful agent behavior. Here\u2019s why you might want to take advantage of this deeper control: This guide explores how to tap into CrewAI\u2019s prompts at a lower level, giving you fine-grained control over how agents think and interact. Under the hood, CrewAI employs a modular prompt system that you can customize extensively: Check out the to see how these elements are organized. From there, you can override or adapt them as needed to unlock advanced behaviors. When engaging in low-level prompt customization, follow these guidelines to keep things organized and maintainable: One straightforward approach is to create a JSON file for the prompts you want to override and then point your Crew at that file: CrewAI then merges your customizations with the defaults, so you don\u2019t have to redefine every prompt. Here\u2019s how: Create a file with the prompts you want to modify. Ensure you list all top-level prompts it should contain, not just your changes: Then integrate it like so: With these few edits, you gain low-level control over how your agents communicate and solve tasks. Different models thrive on differently structured prompts. Making deeper adjustments can significantly boost performance by aligning your prompts with a model\u2019s nuances. For instance, when dealing with Meta\u2019s Llama 3.3, deeper-level customization may reflect the recommended structure described at:\n Here\u2019s an example to highlight how you might fine-tune an Agent to leverage Llama 3.3 in code: Through this deeper configuration, you can exercise comprehensive, low-level control over your Llama-based workflows without needing a separate JSON file. Low-level prompt customization in CrewAI opens the door to super custom, complex use cases. By establishing well-organized prompt files (or direct inline templates), you can accommodate various models, languages, and specialized domains. This level of flexibility ensures you can craft precisely the AI behavior you need, all while knowing CrewAI still provides reliable defaults when you don\u2019t override them. You now have the foundation for advanced prompt customizations in CrewAI. Whether you\u2019re adapting for model-specific structures or domain-specific constraints, this low-level approach lets you shape agent interactions in highly specialized ways. Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of low-level prompt customization in CrewAI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gives fine-grained control over how agents think and interact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Learn how to assess your AI application needs and choose the right approach between Crews and Flows based on complexity and precision requirements. When building AI applications with CrewAI, one of the most important decisions you\u2019ll make is choosing the right approach for your specific use case. Should you use a Crew? A Flow? A combination of both? This guide will help you evaluate your requirements and make informed architectural decisions. At the heart of this decision is understanding the relationship between and in your application: Complexity vs. Precision Matrix for CrewAI Applications This matrix helps visualize how different approaches align with varying requirements for complexity and precision. Let\u2019s explore what each quadrant means and how it guides your architectural choices. In the context of CrewAI applications, refers to: in this context refers to: Simple Crews with minimal agents Flows with direct LLM calls or simple Crews with structured outputs Complex Crews with multiple specialized agents Flows orchestrating multiple Crews with validation steps Crews are ideal when: Flows are ideal when: The most sophisticated applications often benefit from combining Crews and Flows: To determine the right approach for your specific use case, follow this step-by-step evaluation framework: Rate your application\u2019s complexity on a scale of 1-10 by considering: : How many distinct operations are required? : How interconnected are the different parts? : How much branching and decision-making is needed? : How specialized is the knowledge required? Calculate your average score to determine overall complexity. Rate your precision requirements on a scale of 1-10 by considering: : How structured must the output be? : How important is factual accuracy? : How consistent must results be across runs? : What is the impact of errors? Calculate your average score to determine overall precision requirements. Plot your complexity and precision scores on the matrix: Beyond complexity and precision, consider: Choosing between Crews and Flows\u2014or combining them\u2014is a critical architectural decision that impacts the effectiveness, maintainability, and scalability of your CrewAI application. By evaluating your use case along the dimensions of complexity and precision, you can make informed decisions that align with your specific requirements. Remember that the best approach often evolves as your application matures. Start with the simplest solution that meets your needs, and be prepared to refine your architecture as you gain experience and your requirements become clearer. You now have a framework for evaluating CrewAI use cases and choosing the right approach based on complexity and precision requirements. This will help you build more effective, maintainable, and scalable AI applications. Was this page helpful?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many models are preloaded in CrewAI for prompt customization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does low-level prompt customization restrict CrewAI to default prompts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it allows overriding default prompts to enable more flexibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of the Complexity vs. Precision Matrix in CrewAI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It helps visualize how different approaches align with varying requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can CrewAI applications run without any agents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, agents are required for task execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does CrewAI always recommend Flows for simple use cases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, simple Crews with minimal agents are often better suited for simpler cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can CrewAI combine default and custom prompt configurations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, CrewAI merges customizations with default prompts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Flows limited to handling only low-complexity tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Flows can handle high-complexity tasks as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does CrewAI require JSON files to customize prompts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSON files are optional for customization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Crews and Flows be combined in CrewAI applications?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, they can be combined for complex workflows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are CrewAI applications constrained to a single complexity level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, complexity varies depending on use cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Crews manage highly structured workflows better than Flows?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Flows are designed for structured workflows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can prompt changes boost model-specific performance in CrewAI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, aligning prompts with model nuances can enhance performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Crews and Flows independently handle all scenarios?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, they serve different purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do low-level prompt customizations reduce CrewAI’s efficiency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, they often improve task efficiency and flexibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "Semantic search capabilities for CrewAI agents using Qdrant vector database The Qdrant Vector Search Tool enables semantic search capabilities in your CrewAI agents by leveraging , a vector similarity search engine. This tool allows your agents to search through documents stored in a Qdrant collection using semantic similarity. Install the required packages: Here\u2019s a minimal example of how to use the tool: Here\u2019s a complete example showing how to: The tool accepts these parameters in its schema: The tool returns results in JSON format: By default, the tool uses OpenAI\u2019s model for vectorization. This requires: Instead of using the default embedding model, you might want to use your own embedding function in cases where you: Here\u2019s an example using a HuggingFace model: The tool handles these specific errors: Required environment variables: Was this page helpful?"}, "The is designed to search PostgreSQL databases and return the most relevant results. The PGSearchTool is currently under development. This document outlines the intended functionality and interface.\nAs development progresses, please be aware that some features may not be available or could change. The PGSearchTool is envisioned as a powerful tool for facilitating semantic searches within PostgreSQL database tables. By leveraging advanced Retrieve and Generate (RAG) technology,\nit aims to provide an efficient means for querying database table content, specifically tailored for PostgreSQL databases.\nThe tool\u2019s goal is to simplify the process of finding relevant data through semantic search queries, offering a valuable resource for users needing to conduct advanced queries on\nextensive datasets within a PostgreSQL environment. The package, which will include the PGSearchTool upon its release, can be installed using the following command: The PGSearchTool is not yet available in the current version of the package. This installation command will be updated once the tool is released. Below is a proposed example showcasing how to use the PGSearchTool for conducting a semantic search on a table within a PostgreSQL database: The PGSearchTool is designed to require the following arguments for its operation: The tool intends to use OpenAI for both embeddings and summarization by default. Users will have the option to customize the model using a config dictionary as follows: Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What database does the Qdrant Vector Search Tool use for similarity search?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Qdrant Vector Search Tool uses the Qdrant vector database, which is designed for high-performance vector similarity searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Qdrant handle relational data efficiently?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Qdrant is specifically designed for vector similarity search rather than traditional relational data storage and querying like PostgreSQL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Qdrant tool return results as plain text by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Qdrant tool returns results in JSON format, making it easier for integration with AI agents and structured data processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary purpose of the PGSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PGSearchTool is designed to enable semantic search functionality within PostgreSQL databases by leveraging advanced Retrieve and Generate (RAG) technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the PGSearchTool support document vectorization using Qdrant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PGSearchTool is intended for semantic searches within PostgreSQL databases and does not use Qdrant for vectorization or similarity searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PGSearchTool support semantic searches only in Qdrant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PGSearchTool is specifically developed to perform semantic searches within PostgreSQL databases and does not rely on Qdrant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Qdrant use a HuggingFace model for vectorization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Qdrant allows users to replace its default embedding model with a custom HuggingFace model to generate embeddings better suited for specific use cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is PGSearchTool available for installation in the current version?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PGSearchTool is still under development, and as of now, it is not available for installation in the existing package. The installation command will be updated once it is officially released.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Qdrant use PostgreSQL’s architecture for its vector searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Qdrant is an independent vector search engine that does not rely on PostgreSQL’s architecture. It is optimized for high-speed similarity searches using vector embeddings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can PGSearchTool return results in JSON format?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the PGSearchTool is expected to support JSON-formatted results, making it easier for developers to work with structured data when performing semantic searches within PostgreSQL databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PGSearchTool use the same vector engine as Qdrant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PGSearchTool is built to work with PostgreSQL and does not utilize Qdrant’s vector similarity engine for its searches. It primarily uses OpenAI models for embeddings and summarization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will PGSearchTool default to using HuggingFace embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PGSearchTool will use OpenAI’s models for both embedding and summarization by default, though users will have the option to configure custom models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Qdrant support custom embedding models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Qdrant supports custom embedding models, allowing users to choose different vectorization methods, including OpenAI, HuggingFace, or any other compatible embedding function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PGSearchTool require a Qdrant license for use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PGSearchTool does not require a Qdrant license because it is designed for PostgreSQL databases and does not interact with Qdrant’s vector search technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Qdrant automatically configure embeddings without customization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, while Qdrant provides a default embedding model (such as OpenAI), users can override this and configure their own embedding function if they have specific requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"conteXt": "The is designed to search PDF files and return the most relevant results. We are still working on improving tools, so there might be unexpected behavior or changes in the future. The PDFSearchTool is a RAG tool designed for semantic searches within PDF content. It allows for inputting a search query and a PDF document, leveraging advanced search techniques to find relevant content efficiently.\nThis capability makes it especially useful for extracting specific information from large PDF files quickly. To get started with the PDFSearchTool, first, ensure the crewai_tools package is installed with the following command: Here\u2019s how to use the PDFSearchTool to search within a PDF document: By default, the tool uses OpenAI for both embeddings and summarization. To customize the model, you can use a config dictionary as follows: Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main purpose of the PDFSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PDFSearchTool is designed for semantic searches within PDF content, allowing users to extract specific information from large PDF files efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool perform relational data searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool is specifically designed for semantic searches within PDF content and does not perform relational data queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the PDFSearchTool default to using HuggingFace embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool uses OpenAI models for both embeddings and summarization by default, though customization is available through a config dictionary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can you modify the model used by the PDFSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To customize the model used by the PDFSearchTool, users can provide a config dictionary specifying the desired embedding and summarization models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the PDFSearchTool perform searches on image files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool is intended for semantic searches within PDF documents and does not handle searches on image files directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool rely on PostgreSQL for its searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool uses RAG-based techniques and does not utilize PostgreSQL for semantic searches within PDF documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can PDFSearchTool use a custom embedding model?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, PDFSearchTool allows the use of a custom embedding model by modifying the configuration with a config dictionary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is PDFSearchTool available as part of the standard Python library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool is part of the `crewai_tools` package and is not included in the standard Python library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool generate search results as plain text by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PDFSearchTool returns results in a structured format that integrates well with semantic search pipelines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool support extracting content from multiple PDF documents simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PDFSearchTool is optimized for searching within a single PDF document at a time. Multiple searches can be performed, but they are handled separately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool work only with OpenAI models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, while the PDFSearchTool defaults to OpenAI models, users can configure it to work with other models using a custom configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will PDFSearchTool return summarized results as plain text?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PDFSearchTool returns results in a structured format that supports seamless integration with other tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can PDFSearchTool be used for summarizing content in PDFs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the PDFSearchTool supports summarizing PDF content by using its default OpenAI model or a user-configured model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool require a license for commercial use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, PDFSearchTool is part of the open-source `crewai_tools` package and does not require a commercial license.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PDFSearchTool automatically select the best model without configuration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, while PDFSearchTool uses OpenAI models by default, users can configure custom models if needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The Patronus evaluation tools enable CrewAI agents to evaluate and score model inputs and outputs using the Patronus AI platform. The are designed to enable CrewAI agents to evaluate and score model inputs and outputs using the Patronus AI platform. These tools provide different levels of control over the evaluation process, from allowing agents to select the most appropriate evaluator and criteria to using predefined criteria or custom local evaluators. There are three main Patronus evaluation tools: To use these tools, you need to install the Patronus package: You\u2019ll also need to set up your Patronus API key as an environment variable: To effectively use the Patronus evaluation tools, follow these steps: The following example demonstrates how to use the , which allows agents to select the most appropriate evaluator and criteria: The following example demonstrates how to use the , which uses predefined evaluator and criteria: The following example demonstrates how to use the , which uses custom function evaluators: The does not require any parameters during initialization. It automatically fetches available evaluators and criteria from the Patronus API. The accepts the following parameters during initialization: The accepts the following parameters during initialization: When using the Patronus evaluation tools, you provide the model input, output, and context, and the tool returns the evaluation results from the Patronus API. For the and , the following parameters are required when calling the tool: For the , the same parameters are required, but the evaluator and gold answer are specified during initialization. The Patronus evaluation tools provide a powerful way to evaluate and score model inputs and outputs using the Patronus AI platform. By enabling agents to evaluate their own outputs or the outputs of other agents, these tools can help improve the quality and reliability of CrewAI workflows. Was this page helpful? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary purpose of the Patronus evaluation tools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Patronus evaluation tools enable CrewAI agents to evaluate and score model inputs and outputs using the Patronus AI platform, improving the quality and reliability of workflows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Patronus evaluation tools be used for training LLM models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Patronus evaluation tools are designed for evaluating and scoring model inputs and outputs, not for training models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Patronus tools only allow predefined evaluators?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus evaluation tools allow agents to select from predefined criteria, custom local evaluators, or the most appropriate evaluator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you initialize the Patronus evaluation tools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Patronus evaluation tools do not require any parameters during initialization and automatically fetch available evaluators and criteria from the Patronus API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the Patronus evaluation tools use Qdrant for similarity search?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Patronus evaluation tools use the Patronus AI platform for evaluating model inputs and outputs, not Qdrant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Patronus tools limited to CrewAI use cases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, while Patronus evaluation tools are designed for CrewAI agents, they can be adapted for other evaluation scenarios involving AI models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Patronus tools use a custom evaluator function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Patronus tools allow the use of custom evaluator functions, enabling agents to apply domain-specific evaluation criteria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Patronus API included in the Python standard library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Patronus API is part of the Patronus package and needs to be installed separately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Patronus tools require manual evaluator selection by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus tools can automatically select the most appropriate evaluator and criteria, providing flexibility for different use cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Patronus allow evaluating both inputs and outputs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Patronus evaluation tools allow agents to evaluate and score both model inputs and outputs by interacting with the Patronus API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Patronus API store evaluation results locally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus API returns evaluation results dynamically and does not store them locally unless configured manually.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Patronus evaluation tools require manual API configuration for every evaluation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus evaluation tools fetch available evaluators and criteria automatically from the Patronus API, minimizing manual configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Patronus tools evaluate multiple models in parallel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Patronus evaluation tools support evaluating multiple models in parallel if configured properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Patronus tools require a commercial license for usage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus evaluation tools can be used without a commercial license, but an API key is required for integration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Patronus tools restricted to predefined evaluation methods?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Patronus evaluation tools allow using predefined, custom, or auto-selected evaluators, providing flexibility in evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The empowers CrewAI agents with the capability to navigate and interact with the web through natural language instructions. The is designed to wrap web browsing capabilities, enabling CrewAI agents to control web browsers using natural language instructions. This tool facilitates seamless web browsing, making it an essential asset for projects requiring dynamic web data interaction and automation of web-based tasks. To use this tool, you need to install the MultiOn package: You\u2019ll also need to install the MultiOn browser extension and enable API usage. To effectively use the , follow these steps: The following example demonstrates how to initialize the tool and execute a web browsing task: The accepts the following parameters during initialization: When using the , the agent will provide natural language instructions that the tool translates into web browsing actions. The tool returns the results of the browsing session along with a status. If the status returned is , the agent should be instructed to reissue the same instruction to continue execution. The is implemented as a subclass of from CrewAI. It wraps the MultiOn client to provide web browsing capabilities: The provides a powerful way to integrate web browsing capabilities into CrewAI agents. By enabling agents to interact with websites through natural language instructions, it opens up a wide range of possibilities for web-based tasks, from data collection and research to automated interactions with web services. Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary purpose of the MultiOn tool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MultiOn tool empowers CrewAI agents to control web browsers using natural language instructions, enabling seamless web-based interactions and task automation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn be used to develop Python APIs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn is specifically designed to enable web browsing and interaction via natural language, not for developing Python APIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn require no installation or configuration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn requires installation of the MultiOn package, a browser extension, and enabling API usage to function effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the MultiOn tool execute a web browsing task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The agent provides natural language instructions that the MultiOn tool translates into web browsing actions, returning the results of the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn be configured to work offline without internet access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn requires an internet connection to interact with and navigate websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn limit browsing tasks to static websites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn can interact with both static and dynamic websites through natural language instructions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn handle multiple web browsing tasks simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, MultiOn can manage multiple browsing sessions, although performance depends on system resources and task complexity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn automatically generate SQL queries from web data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn is designed for web-based interactions and cannot generate SQL queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn restrict API usage during web interactions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn enables API usage and requires the API to be enabled during setup for proper functioning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn be used to extract dynamic data from web pages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, MultiOn can interact with dynamic websites and extract data as per agent instructions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn use a default browser without configuration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn requires a browser extension and configuration for web browsing tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MultiOn only capable of navigating static HTML pages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn can handle complex web tasks and interact with dynamic content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn handle CAPTCHAs while automating web tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn does not handle CAPTCHAs automatically and may require manual intervention for such tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn require an AI model for every web task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn uses natural language instructions and browser API interactions without needing an AI model for every task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MultiOn capable of executing JavaScript tasks directly on web pages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn executes browsing tasks but does not directly execute JavaScript functions on web pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricky Relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn pause and resume tasks based on user instructions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, MultiOn can pause and resume web tasks when instructed by the agent using natural language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricky Irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn interact with PDF documents embedded in web pages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn interacts with web pages but cannot directly manipulate embedded PDF documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricky Opposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn automatically log browser actions in a database?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn does not log browser actions in a database by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MultiOn return JSON responses for web interactions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, MultiOn returns web interaction results along with a status, which can be converted to JSON for structured analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MultiOn compatible with SQL databases for query execution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn is designed for web interactions and does not execute SQL queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Opposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MultiOn replace traditional web scraping libraries like BeautifulSoup?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MultiOn focuses on web browsing tasks through natural language instructions, not traditional web scraping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to search MySQL databases and return the most relevant results. This tool is designed to facilitate semantic searches within MySQL database tables. Leveraging the RAG (Retrieve and Generate) technology,\nthe MySQLSearchTool provides users with an efficient means of querying database table content, specifically tailored for MySQL databases.\nIt simplifies the process of finding relevant data through semantic search queries, making it an invaluable resource for users needing\nto perform advanced queries on extensive datasets within a MySQL database. To install the package and utilize the MySQLSearchTool, execute the following command in your terminal: Below is an example showcasing how to use the MySQLSearchTool to conduct a semantic search on a table within a MySQL database: The MySQLSearchTool requires the following arguments for its operation: By default, the tool uses OpenAI for both embeddings and summarization. To customize the model, you can use a config dictionary as follows: Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary purpose of the MySQLSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MySQLSearchTool is designed to facilitate semantic searches within MySQL database tables by leveraging RAG technology to query and return relevant results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MySQLSearchTool interact with NoSQL databases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool is specifically tailored for semantic search queries within MySQL databases and does not interact with NoSQL databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MySQLSearchTool generate embeddings using HuggingFace by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool uses OpenAI models for embeddings and summarization by default, but it allows users to customize the model if needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of queries does the MySQLSearchTool simplify?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MySQLSearchTool simplifies semantic search queries, making it easier to find relevant data within extensive MySQL database tables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool be used to modify table structures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool is designed to perform semantic search queries and does not modify table structures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MySQLSearchTool operate on relational databases other than MySQL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool is specifically designed for MySQL databases and does not perform operations on other relational databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MySQLSearchTool perform searches across multiple MySQL tables simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MySQLSearchTool can conduct semantic searches across multiple tables, provided the query and database configuration support such operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MySQLSearchTool require GPU acceleration for search operations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool does not require GPU acceleration; it uses natural language queries and semantic search models to operate efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MySQLSearchTool work without installing the package?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool requires installing the appropriate package to function correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool return query results in JSON format?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MySQLSearchTool supports returning query results in JSON format, making it easier to work with structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MySQLSearchTool require environment variables for configuration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool configuration is primarily handled through a config dictionary that allows for model customization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MySQLSearchTool limited to exact keyword matches in queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MySQLSearchTool performs semantic searches and is not restricted to exact keyword matches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool be used to update records after a semantic search?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, while MySQLSearchTool retrieves relevant results, it does not perform record modifications or updates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MySQLSearchTool require an OpenAI API key to run?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, by default, MySQLSearchTool uses OpenAI models for embeddings and summarization, which requires an API key.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool perform semantic search on PDF documents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool is specifically designed for querying content within MySQL databases, not PDF documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MySQLSearchTool provide model customization options?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, users can customize the model used for embeddings and summarization by passing a config dictionary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool generate SQL queries using natural language input?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool is built for semantic searches within MySQL tables but does not generate SQL queries directly from natural language input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MySQLSearchTool support only exact column name searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool leverages semantic search, making it capable of retrieving relevant content beyond exact column name matches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MySQLSearchTool operate with user-defined summarization models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, users can specify their own summarization models by configuring the tool’s settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MySQLSearchTool capable of web scraping and extracting content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool is strictly focused on performing semantic search within MySQL databases and does not handle web scraping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MySQLSearchTool return plain text responses by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MySQLSearchTool returns query results in structured formats, such as JSON, by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to search MDX files and return the most relevant results. The MDXSearchTool is in continuous development. Features may be added or removed, and functionality could change unpredictably as we refine the tool. The MDX Search Tool is a component of the package aimed at facilitating advanced markdown language extraction. It enables users to effectively search and extract relevant information from MD files using query-based searches. This tool is invaluable for data analysis, information management, and research tasks, streamlining the process of finding specific information within large document collections. Before using the MDX Search Tool, ensure the package is installed. If it is not, you can install it with the following command: To use the MDX Search Tool, you must first set up the necessary environment variables. Then, integrate the tool into your crewAI project to begin your market research. Below is a basic example of how to do this: The tool defaults to using OpenAI for embeddings and summarization. For customization, utilize a configuration dictionary as shown below: Was this page helpful?"please follow above content strictly, give tricky questions, mix direct all unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the MDXSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MDXSearchTool facilitates advanced markdown language extraction by enabling query-based searches on MD files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MDXSearchTool search PDF files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool is designed to search MD files and does not support PDF file searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MDXSearchTool require PostgreSQL for data extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool operates independently and does not require PostgreSQL for data extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of searches can the MDXSearchTool perform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MDXSearchTool performs query-based searches to extract relevant information from MD files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MDXSearchTool generate SQL queries to search MD files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool performs semantic searches within MD files without generating SQL queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MDXSearchTool modify content within MD files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool is used for searching and extracting information, not modifying content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MDXSearchTool use a custom model for embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MDXSearchTool allows model customization using a configuration dictionary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is GPU acceleration required for using the MDXSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, GPU acceleration is not necessary for the MDXSearchTool to operate effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MDXSearchTool automatically update environment variables?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the environment variables must be set manually before using the MDXSearchTool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MDXSearchTool return search results in JSON format?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MDXSearchTool supports returning query results in JSON format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the MDXSearchTool support REST API for search queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool works with markdown documents and does not support REST API queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MDXSearchTool perform vector searches in relational databases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool is specifically for markdown documents and does not interact with relational databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MDXSearchTool require internet access for basic functionality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool can perform basic search operations locally without internet access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MDXSearchTool use Qdrant for storing embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool uses OpenAI for embeddings and summarization by default, though other models can be configured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MDXSearchTool automatically update MD file metadata?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool is focused on extracting and searching content and does not modify metadata automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the MDXSearchTool be integrated into CrewAI projects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MDXSearchTool can be integrated into CrewAI projects for effective document extraction and querying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MDXSearchTool require Docker for deployment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool does not require Docker for deployment or execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MDXSearchTool summarize content from non-Markdown sources?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the MDXSearchTool is designed to work exclusively with MD files for summarization and extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can MDXSearchTool be used for research tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the MDXSearchTool is a valuable resource for research tasks by facilitating query-based document extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is MDXSearchTool capable of scraping web content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MDXSearchTool is not designed to perform web scraping; it is focused on markdown file searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does MDXSearchTool provide plain text responses by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, MDXSearchTool returns results in structured formats like JSON.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to search JSON files and return the most relevant results. The JSONSearchTool is currently in an experimental phase. This means the tool\nis under active development, and users might encounter unexpected behavior or\nchanges. We highly encourage feedback on any issues or suggestions for\nimprovements. The JSONSearchTool is designed to facilitate efficient and precise searches within JSON file contents. It utilizes a RAG (Retrieve and Generate) search mechanism, allowing users to specify a JSON path for targeted searches within a particular JSON file. This capability significantly improves the accuracy and relevance of search results. To install the JSONSearchTool, use the following pip command: Here are updated examples on how to utilize the JSONSearchTool effectively for searching within JSON files. These examples take into account the current implementation and usage patterns identified in the codebase. The JSONSearchTool supports extensive customization through a configuration dictionary. This allows users to select different models for embeddings and summarization based on their requirements. Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the JSONSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The JSONSearchTool facilitates efficient and precise searches within JSON file contents using a RAG mechanism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the JSONSearchTool search MDX files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the JSONSearchTool is designed to search JSON files, not MDX files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the JSONSearchTool modify JSON file content during a search?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the JSONSearchTool performs read-only searches and does not modify content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What search mechanism does the JSONSearchTool use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The JSONSearchTool uses a RAG (Retrieve and Generate) search mechanism to perform targeted searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the JSONSearchTool use SQL queries for JSON searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the JSONSearchTool performs searches using a RAG mechanism, not SQL queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool return results in XML format by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the JSONSearchTool returns results in JSON format by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool use custom models for embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the JSONSearchTool allows users to select different models for embeddings and summarization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool require GPU acceleration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool does not require GPU acceleration to perform searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool automatically update JSON content after extracting results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the JSONSearchTool does not modify JSON files during or after extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool return search results in JSON format?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, JSONSearchTool returns search results in JSON format by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool support REST API for search queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool works with JSON files and does not support REST API queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool perform vector searches in relational databases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool is designed for JSON file searches and does not interact with relational databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool require internet access for basic functionality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool can perform basic search operations locally without internet access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool use Qdrant for storing embeddings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool uses OpenAI for embeddings and summarization by default, though other models can be configured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool automatically update JSON metadata?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool is focused on extracting and searching content and does not modify metadata automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool be integrated into CrewAI projects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, JSONSearchTool can be integrated into CrewAI projects for effective document extraction and querying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool require Docker for deployment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool does not require Docker for deployment or execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool summarize content from non-JSON sources?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool is designed to work exclusively with JSON files for summarization and extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can JSONSearchTool be used for research tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, JSONSearchTool is a valuable resource for research tasks by facilitating query-based document extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is JSONSearchTool capable of scraping web content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool is not designed to perform web scraping; it is focused on JSON file searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does JSONSearchTool provide plain text responses by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, JSONSearchTool returns results in structured formats like JSON.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The enables CrewAI agents to extract specific elements from websites using CSS selectors. The is designed to extract specific elements from websites using CSS selectors. This tool allows CrewAI agents to scrape targeted content from web pages, making it useful for data extraction tasks where only specific parts of a webpage are needed. To use this tool, you need to install the required dependencies: To effectively use the , follow these steps: The following example demonstrates how to use the to extract specific elements from a website: You can also initialize the tool with predefined parameters: The accepts the following parameters during initialization: When using the with an agent, the agent will need to provide the following parameters (unless they were specified during initialization): The tool will return the text content of all elements matching the CSS selector, joined by newlines. The uses the library to fetch the web page and to parse the HTML and extract the specified elements: The provides a powerful way to extract specific elements from websites using CSS selectors. By enabling agents to target only the content they need, it makes web scraping tasks more efficient and focused. This tool is particularly useful for data extraction, content monitoring, and research tasks where specific information needs to be extracted from web pages. Was this page helpful?"}, "The leverages Scrapegraph AI\u2019s SmartScraper API to intelligently extract content from websites. The is designed to leverage Scrapegraph AI\u2019s SmartScraper API to intelligently extract content from websites. This tool provides advanced web scraping capabilities with AI-powered content extraction, making it ideal for targeted data collection and content analysis tasks. Unlike traditional web scrapers, it can understand the context and structure of web pages to extract the most relevant information based on natural language prompts. To use this tool, you need to install the Scrapegraph Python client: You\u2019ll also need to set up your Scrapegraph API key as an environment variable: You can obtain an API key from . To effectively use the , follow these steps: The following example demonstrates how to use the to extract content from a website: You can also initialize the tool with predefined parameters: The accepts the following parameters during initialization: When using the with an agent, the agent will need to provide the following parameters (unless they were specified during initialization): The tool will return the extracted content based on the provided prompt. The may raise the following exceptions: It\u2019s recommended to instruct agents to handle potential errors gracefully: The Scrapegraph API has rate limits that vary based on your subscription plan. Consider the following best practices: The uses the Scrapegraph Python client to interact with the SmartScraper API: The provides a powerful way to extract content from websites using AI-powered understanding of web page structure. By enabling agents to target specific information using natural language prompts, it makes web scraping tasks more efficient and focused. This tool is particularly useful for data extraction, content monitoring, and research tasks where specific information needs to be extracted from web pages. Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the CSS Extraction Tool require an API key to function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the CSS Extraction Tool does not require an API key to extract web content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the CSS Extraction Tool use AI to understand web page structure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the CSS Extraction Tool relies solely on CSS selectors for content extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the CSS Extraction Tool handle multiple selectors in a single query?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the CSS Extraction Tool can accept multiple CSS selectors for targeted extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the CSS Extraction Tool support data summarization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the CSS Extraction Tool is focused only on extracting specified content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the CSS Extraction Tool automatically clean extracted content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the CSS Extraction Tool returns raw extracted content without automatic cleaning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of Scrapegraph SmartScraper?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scrapegraph SmartScraper provides AI-powered content extraction by understanding the structure of web pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper require CSS selectors for extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper uses AI to extract content and does not rely on CSS selectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper work without internet access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper requires internet access to interact with the API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What API does Scrapegraph SmartScraper use for content extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrapegraph SmartScraper uses the SmartScraper API for AI-powered content extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Scrapegraph SmartScraper be used to modify web content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper only extracts content and does not modify web pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper return content as plain text?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper returns extracted content in a structured format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Scrapegraph SmartScraper use custom prompts for extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Scrapegraph SmartScraper allows agents to use natural language prompts for targeted extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper handle PDF content extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper is designed for web page extraction, not PDF files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper perform CSS-based extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper uses AI to extract relevant content and does not rely on CSS selectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can CSS Extraction Tool extract text and attributes of selected elements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the CSS Extraction Tool can extract both text and attributes of selected elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper interact with local databases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper extracts content from websites and does not interact with databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper extract static content only?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper can handle both static and dynamic web content using AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the CSS Extraction Tool allow filtering based on element attributes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the CSS Extraction Tool can filter extracted elements based on attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper require Python 3.10 or above?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper supports multiple Python versions and does not strictly require Python 3.10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Scrapegraph SmartScraper function without API authentication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper requires an API key for authentication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the CSS Extraction Tool scrape paginated content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, but the agent must implement logic to handle pagination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper cache extracted content locally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper does not cache content locally by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper require manual configuration of CSS selectors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper uses AI and does not require CSS selectors for extraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the CSS Extraction Tool extract multiple element types simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the CSS Extraction Tool can extract different element types by using multiple selectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scrapegraph SmartScraper have a local GUI for managing extractions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper is API-based and does not provide a GUI interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Scrapegraph SmartScraper perform content extraction without internet access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Scrapegraph SmartScraper requires internet access for API interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context": "The enables CrewAI agents to write content to files in Amazon S3 buckets. The is designed to write content to files in Amazon S3 buckets. This tool allows CrewAI agents to create or update files in S3, making it ideal for workflows that require storing data, saving configuration files, or persisting any other content to AWS S3 storage. To use this tool, you need to install the required dependencies: To effectively use the , follow these steps: The following example demonstrates how to use the to write content to a file in an S3 bucket: The accepts the following parameters when used by an agent: The tool requires AWS credentials to access S3 buckets. You can configure these credentials using environment variables: When using the with an agent, the agent will need to provide both the S3 file path and the content to write: The includes error handling for common S3 issues: When an error occurs, the tool will return an error message that includes details about the issue. The uses the AWS SDK for Python (boto3) to interact with S3: The provides a straightforward way to write content to files in Amazon S3 buckets. By enabling agents to create and update files in S3, it facilitates workflows that require cloud-based file storage. This tool is particularly useful for data persistence, configuration management, report generation, and any task that involves storing information in AWS S3 storage. Was this page helpful?" " "The enables CrewAI agents to read files from Amazon S3 buckets. The is designed to read files from Amazon S3 buckets. This tool allows CrewAI agents to access and retrieve content stored in S3, making it ideal for workflows that require reading data, configuration files, or any other content stored in AWS S3 storage. To use this tool, you need to install the required dependencies: To effectively use the , follow these steps: The following example demonstrates how to use the to read a file from an S3 bucket: The accepts the following parameter when used by an agent: The tool requires AWS credentials to access S3 buckets. You can configure these credentials using environment variables: When using the with an agent, the agent will need to provide the S3 file path: The includes error handling for common S3 issues: When an error occurs, the tool will return an error message that includes details about the issue. The uses the AWS SDK for Python (boto3) to interact with S3: The provides a straightforward way to read files from Amazon S3 buckets. By enabling agents to access content stored in S3, it facilitates workflows that require cloud-based file access. This tool is particularly useful for data processing, configuration management, and any task that involves retrieving information from AWS S3 storage. Was this page helpful?"Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the S3 Write Tool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The S3 Write Tool allows CrewAI agents to write content to files in Amazon S3 buckets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool modify data within S3 automatically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool does not modify existing data unless instructed explicitly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool read files from S3 buckets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool writes content to files but does not read content from S3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What library does the S3 Write Tool use to interact with S3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The S3 Write Tool uses the AWS SDK for Python (boto3) to interact with S3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool support writing content to local file systems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool is specifically designed to write content to S3, not local file systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Write Tool perform SQL queries on S3 files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool cannot perform SQL queries on S3 files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool validate the file content before uploading?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool does not validate the file content before uploading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool modify the file format during upload?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool does not modify the file format during upload.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the S3 Write Tool capable of creating multiple files in parallel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Write Tool can create multiple files in parallel if configured correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the S3 Read Tool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The S3 Read Tool allows CrewAI agents to read files from Amazon S3 buckets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool modify the content of files it reads?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Read Tool only reads content and does not modify files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool write content to S3 buckets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Read Tool is used to read content, not to write content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Read Tool retrieve partial file contents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Read Tool can retrieve partial file contents if specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool modify file permissions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Read Tool does not modify file permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Read Tool validate content format before retrieval?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Read Tool cannot validate content format before retrieval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool support encrypted file reading?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Read Tool supports encrypted file reading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool read file metadata efficiently?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Read Tool reads file metadata efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Read Tool fetch multiple files at once?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Read Tool can fetch multiple files at once if configured correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Write Tool handle large file uploads?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Write Tool can handle large file uploads efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool create backup copies automatically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Write Tool does not create backup copies automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool update existing files in S3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Write Tool can update existing files if overwrite is enabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Write Tool support version control for files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Write Tool supports version control for files stored in S3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the S3 Read Tool perform read operations concurrently?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the S3 Read Tool can perform read operations concurrently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the S3 Read Tool automatically handle errors during retrieval?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the S3 Read Tool does not automatically handle errors during retrieval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to search the internet and return the most relevant results. We are still working on improving tools, so there might be unexpected behavior or changes in the future. This tool is designed to perform a semantic search for a specified query from a text\u2019s content across the internet. It utilizes the API\nto fetch and display the most relevant search results based on the query provided by the user. To incorporate this tool into your project, follow the installation instructions below: The following example demonstrates how to initialize the tool and execute a search with a given query: To effectively use the , follow these steps: The comes with several parameters that will be passed to the API : : The URL endpoint for the search API. (Default is ) : Optional. Specify the country for the search results. : Optional. Specify the location for the search results. : Optional. Specify the locale for the search results. : Number of search results to return. Default is . The values for , , and can be found on the . Here is an example demonstrating how to use the tool with additional parameters: By integrating the into Python projects, users gain the ability to conduct real-time, relevant searches across the internet directly from their applications.\nThe updated parameters allow for more customized and localized search results. By adhering to the setup and usage guidelines provided, incorporating this tool into projects is streamlined and straightforward. Was this page helpful? "The is a wrapper for LlamaIndex tools and query engines. The is designed to be a general wrapper around LlamaIndex tools and query engines, enabling you to leverage LlamaIndex resources in terms of RAG/agentic pipelines as tools to plug into CrewAI agents. This tool allows you to seamlessly integrate LlamaIndex\u2019s powerful data processing and retrieval capabilities into your CrewAI workflows. To use this tool, you need to install LlamaIndex: To effectively use the , follow these steps: The following examples demonstrate how to initialize the tool from different LlamaIndex components: The provides two main class methods for creating instances: Creates a from a LlamaIndex tool. Creates a from a LlamaIndex query engine. The method accepts the following parameters: The provides a powerful way to integrate LlamaIndex\u2019s capabilities into CrewAI agents. By wrapping LlamaIndex tools and query engines, it enables agents to leverage sophisticated data retrieval and processing functionalities, enhancing their ability to work with complex information sources. Was this page helpful?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the Search Tool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Search Tool performs a semantic search for specified queries and fetches results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool modify data from the internet automatically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not modify search results automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool provide results for LlamaIndex queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool is not responsible for executing LlamaIndex queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the Search Tool perform semantic searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Search Tool uses semantic search to retrieve relevant results from the internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Search Tool retrieve search results based on location?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Search Tool can retrieve results based on country, location, and locale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool generate SQL queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not generate SQL queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool validate the search results before displaying them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not validate search results before displaying them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool modify search API endpoints dynamically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not modify search API endpoints dynamically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Search Tool capable of performing real-time searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Search Tool is capable of performing real-time searches efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the LlamaIndex Wrapper?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LlamaIndex Wrapper enables CrewAI agents to integrate LlamaIndex tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper modify existing query results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the LlamaIndex Wrapper does not modify existing query results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper read data from APIs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the LlamaIndex Wrapper does not read data from APIs directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the LlamaIndex Wrapper retrieve partial query results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper can retrieve partial query results if specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper modify content before processing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the LlamaIndex Wrapper does not modify content before processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the LlamaIndex Wrapper validate query output?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the LlamaIndex Wrapper cannot validate query output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper support encrypted query reading?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper supports encrypted query reading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper execute multiple queries simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper can execute multiple queries simultaneously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Search Tool handle large-scale internet searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Search Tool can handle large-scale internet searches efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool cache search results for faster queries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not cache search results by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool automatically re-run failed searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not automatically re-run failed searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper support versioning of query tools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper supports versioning of query tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the LlamaIndex Wrapper execute concurrent query operations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper can execute concurrent query operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Search Tool handle errors gracefully?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Search Tool does not handle errors gracefully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the LlamaIndex Wrapper support real-time query adjustments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the LlamaIndex Wrapper supports real-time query adjustments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context": "The enables querying the Linkup API for contextual information. The provides the ability to query the Linkup API for contextual information and retrieve structured results. This tool is ideal for enriching workflows with up-to-date and reliable information from Linkup, allowing agents to access relevant data during their tasks. To use this tool, you need to install the Linkup SDK: To effectively use the , follow these steps: The following example demonstrates how to initialize the tool and use it in an agent: The accepts the following parameters: You can customize the search parameters for more specific results: The tool returns results in the following format: If an error occurs, the response will be: The tool gracefully handles API errors and provides structured feedback. If the API request fails, the tool will return a dictionary with and an error message. The provides a seamless way to integrate Linkup\u2019s contextual information retrieval capabilities into your CrewAI agents. By leveraging this tool, agents can access relevant and up-to-date information to enhance their decision-making and task execution. Was this page helpful? "The enables web scraping and crawling using Hyperbrowser. The enables web scraping and crawling using , a platform for running and scaling headless browsers. This tool allows you to scrape a single page or crawl an entire site, returning the content in properly formatted markdown or HTML. Key Features: To use this tool, you need to install the Hyperbrowser SDK: To effectively use the , follow these steps: The following example demonstrates how to initialize the tool and use it to scrape a website: The accepts the following parameters: For detailed information on all supported parameters, visit: The tool returns content in the following format: The provides a powerful way to scrape and crawl websites, handling complex scenarios like anti-bot measures, CAPTCHAs, and more. By leveraging Hyperbrowser\u2019s platform, this tool enables agents to access and extract web content efficiently. Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the Linkup API?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Linkup API queries contextual information and returns structured results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API modify existing data in the workflow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not modify existing data automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API query for web crawling tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API is not designed for web crawling tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the Linkup API enrich workflows with contextual information?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Linkup API enriches workflows by retrieving up-to-date information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Linkup API return real-time results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Linkup API can return real-time results when configured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API handle API errors automatically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not handle API errors automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API provide feedback if the request fails?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Linkup API provides structured feedback when a request fails.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API return web page content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not return web page content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Linkup API used for running headless browsers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not run headless browsers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool support crawling multiple pages simultaneously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool supports crawling multiple pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool modify content before storing it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Hyperbrowser tool does not modify content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool read data from JSON APIs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Hyperbrowser tool does not read data from JSON APIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Hyperbrowser tool scrape data from e-commerce sites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool can scrape data from multiple websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool modify the page content for faster crawling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Hyperbrowser tool does not modify page content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Hyperbrowser tool handle anti-bot challenges?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool can handle CAPTCHAs and anti-bot measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool support dynamic page rendering?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool supports dynamic page rendering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool cache content for later use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Hyperbrowser tool does not cache content for later use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Linkup API handle large-scale data requests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Linkup API can handle large-scale data requests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API provide version control for results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not provide version control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API automatically retry failed requests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the Linkup API does not retry failed requests automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool process asynchronous content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool can process asynchronous content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the Hyperbrowser tool dynamically adjust crawl depth?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool can dynamically adjust crawl depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Linkup API format its results as JSON by default?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Linkup API returns results in JSON format by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Hyperbrowser tool support headless browser scaling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Hyperbrowser tool supports scaling headless browsers efficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to search websites and convert them into clean markdown or structured data. We are still working on improving tools, so there might be unexpected behavior or changes in the future. The GithubSearchTool is a Retrieval-Augmented Generation (RAG) tool specifically designed for conducting semantic searches within GitHub repositories. Utilizing advanced semantic search capabilities, it sifts through code, pull requests, issues, and repositories, making it an essential tool for developers, researchers, or anyone in need of precise information from GitHub. To use the GithubSearchTool, first ensure the crewai_tools package is installed in your Python environment: This command installs the necessary package to run the GithubSearchTool along with any other tools included in the crewai_tools package. Here\u2019s how you can use the GithubSearchTool to perform semantic searches within a GitHub repository: By default, the tool uses OpenAI for both embeddings and summarization. To customize the model, you can use a config dictionary as follows: Was this page helpful?" : "The is designed to search websites and convert them into clean markdown or structured data. is a platform for crawling and convert any website into clean markdown or structured data. Utilize the FirecrawlSearchTool as follows to allow your agent to load websites: Was this page helpful?""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary function of the GithubSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The GithubSearchTool performs semantic searches on GitHub repositories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the GithubSearchTool extract web content and convert it into markdown?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the GithubSearchTool does not extract or convert website content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the GithubSearchTool analyze website HTML structures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the GithubSearchTool is not designed for HTML analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main function of the FirecrawlSearchTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FirecrawlSearchTool converts websites into markdown or structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlSearchTool perform code-based semantic searches?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool is not used for code-based searches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool summarize pull requests from GitHub?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not summarize pull requests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the GithubSearchTool retrieve issues from GitHub repositories?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool retrieves issues from repositories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool convert JSON APIs to markdown?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not convert JSON APIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the FirecrawlSearchTool used for API documentation generation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool is not used for API documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the GithubSearchTool work only with public repositories?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the GithubSearchTool works with both public and private repositories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the GithubSearchTool identify all open pull requests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool identifies open pull requests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool monitor real-time website changes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not monitor real-time changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlSearchTool crawl e-commerce websites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the FirecrawlSearchTool can crawl e-commerce sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the GithubSearchTool support API key-based access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool supports API key-based access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool use headless browsers for crawling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not use headless browsers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the GithubSearchTool access private repositories with appropriate permissions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool can access private repositories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the GithubSearchTool support advanced filtering for pull requests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool supports advanced filtering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool process XML and JSON formats?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not process XML or JSON formats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlSearchTool modify content before saving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not modify content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool crawl websites asynchronously?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the FirecrawlSearchTool can crawl asynchronously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the GithubSearchTool support multiple query languages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool supports multiple query languages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool generate structured data for machine learning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the FirecrawlSearchTool generates structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the GithubSearchTool create a summary of multiple issues?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the GithubSearchTool can summarize multiple issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlSearchTool support converting REST APIs to markdown?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlSearchTool does not convert REST APIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to scrape websites and convert them into clean markdown or structured data. is a platform for crawling and convert any website into clean markdown or structured data. Utilize the FirecrawlScrapeWebsiteTool as follows to allow your agent to load websites: Was this page helpful?"}, "The is designed to crawl and convert websites into clean markdown or structured data. is a platform for crawling and convert any website into clean markdown or structured data. Utilize the FirecrawlScrapeFromWebsiteTool as follows to allow your agent to load websites: Was this page helpful?""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of the FirecrawlScrapeWebsiteTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FirecrawlScrapeWebsiteTool scrapes websites and converts them into markdown or structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeWebsiteTool convert websites into clean markdown?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it converts websites into clean markdown or structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeWebsiteTool handle complex websites with heavy JS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it does not support complex websites with heavy JS rendering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does the FirecrawlScrapeFromWebsiteTool do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FirecrawlScrapeFromWebsiteTool crawls and converts websites into clean markdown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool support only static sites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the tool supports both static and dynamic websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeFromWebsiteTool handle AJAX-loaded websites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can handle AJAX-loaded websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeWebsiteTool extract images and media from websites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the FirecrawlScrapeWebsiteTool extracts images and media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool require an API key?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, an API key may be required for some integrations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeFromWebsiteTool only scrape the homepage of a website?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the tool can scrape multiple pages from a website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeWebsiteTool support dynamic content extraction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it supports dynamic content extraction from JavaScript-rendered pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeWebsiteTool handle CAPTCHA-protected websites?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, CAPTCHA-protected websites are not supported by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool return data as JSON?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the FirecrawlScrapeFromWebsiteTool does not return data in JSON format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool perform content filtering during crawling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the tool can perform content filtering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the FirecrawlScrapeWebsiteTool limited to specific website types?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it is not limited to specific types of websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool crawl the entire website?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the FirecrawlScrapeFromWebsiteTool crawls the entire website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FirecrawlScrapeWebsiteTool handle multiple page scraping?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the tool can scrape multiple pages if specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a rate limit on how many pages the FirecrawlScrapeWebsiteTool can scrape?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, there are no inherent rate limits unless set by the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FirecrawlScrapeFromWebsiteTool convert websites into structured data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it converts websites into markdown or structured data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"context": "The is designed to write content to files. The is a component of the crewai_tools package, designed to simplify the process of writing content to files with cross-platform compatibility (Windows, Linux, macOS).\nIt is particularly useful in scenarios such as generating reports, saving logs, creating configuration files, and more.\nThis tool handles path differences across operating systems, supports UTF-8 encoding, and automatically creates directories if they don\u2019t exist, making it easier to organize your output reliably across different platforms. Install the crewai_tools package to use the in your projects: To get started with the : By integrating the into your crews, the agents can reliably write content to files across different operating systems.\nThis tool is essential for tasks that require saving output data, creating structured file systems, and handling cross-platform file operations.\nIt\u2019s particularly recommended for Windows users who may encounter file writing issues with standard Python file operations. By adhering to the setup and usage guidelines provided, incorporating this tool into projects is straightforward and ensures consistent file writing behavior across all platforms. Was this page help"The is designed to read files from the local file system. We are still working on improving tools, so there might be unexpected behavior or changes in the future. The FileReadTool conceptually represents a suite of functionalities within the crewai_tools package aimed at facilitating file reading and content retrieval.\nThis suite includes tools for processing batch text files, reading runtime configuration files, and importing data for analytics.\nIt supports a variety of text-based file formats such as , , , and more. Depending on the file type, the suite offers specialized functionality,\nsuch as converting JSON content into a Python dictionary for ease of use. To utilize the functionalities previously attributed to the FileReadTool, install the crewai_tools package: To get started with the FileReadTool: Was this page helpful?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of the FileWriteTool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FileWriteTool is used for writing content to files, providing cross-platform compatibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileWriteTool handle cross-platform file operations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it handles file operations across platforms like Windows, Linux, and macOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileWriteTool handle large text files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can handle large files as long as they are text-based.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does the FileReadTool do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FileReadTool is designed to read files from the local file system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileReadTool support only text files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it supports a variety of file formats, not just text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool read binary files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it only supports text files and not binary formats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileWriteTool create directories automatically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can automatically create directories if they do not exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileReadTool support reading from multiple formats?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can read from multiple file formats such as JSON, CSV, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool process JSON files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can read and process JSON files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileWriteTool require manual directory creation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it automatically creates directories if needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileWriteTool support UTF-8 encoding?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it supports UTF-8 encoding by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What file types does the FileReadTool support?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports text-based formats like JSON, CSV, and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool convert JSON to a Python dictionary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it converts JSON content into a Python dictionary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the FileWriteTool compatible with all operating systems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it is compatible with Windows, Linux, and macOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What file types can the FileReadTool read?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports text-based formats such as JSON, CSV, and others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the FileWriteTool recommended for Windows users?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it is especially helpful for overcoming Windows file writing issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool read configuration files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can read configuration files in various formats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What tasks does the FileWriteTool simplify?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It simplifies tasks like saving logs, generating reports, and file creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool read large datasets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it can handle large datasets, especially for batch processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the FileReadTool useful for data analytics?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it is ideal for analytics-related data import and processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What platform compatibility does the FileWriteTool support?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it is designed to work across Windows, Linux, and macOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileWriteTool require UTF-8 encoding?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it ensures UTF-8 encoding support for text files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can the FileReadTool process configuration files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it processes configuration files, particularly text-based formats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the FileWriteTool handle cross-platform differences?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it ensures consistent behavior across platforms for file writing.</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +3307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1408,6 +3322,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1427,10 +3345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E189" activeCellId="0" sqref="E189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A497" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E510" activeCellId="0" sqref="E510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4292,6 +6210,4371 @@
         <v>1</v>
       </c>
     </row>
+    <row r="202" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E304" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E305" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E306" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E307" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E308" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E309" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E310" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E311" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E312" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E313" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E314" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E315" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E316" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E317" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E318" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E319" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E320" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E321" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E322" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E323" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E324" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="E325" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E326" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E328" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E329" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="E330" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E331" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E332" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E333" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E334" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E336" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E339" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E341" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E342" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="E348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E352" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="E355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E360" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="E361" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E363" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E365" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="E366" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="E367" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E368" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="E369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="E370" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E371" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E372" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E374" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="E375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E376" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="E377" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="E378" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="E379" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="E380" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E381" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="E382" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="E383" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="E384" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E385" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="E386" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="E387" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="E388" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="E389" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="E390" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E391" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="E392" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E393" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="E394" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="E396" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="E397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E398" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="E400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="E403" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E404" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E405" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E406" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E407" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="E408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E410" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="E411" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E412" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="E413" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E414" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E415" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="E416" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E417" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="E418" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="E419" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E420" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="E421" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="E422" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="E423" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="E424" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="E426" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="E427" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="E428" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="E429" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E430" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="E431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="E432" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="E433" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="E434" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E435" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="E436" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="E437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E438" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E439" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="E440" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="E441" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="E442" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E443" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="E444" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="E445" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E446" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E447" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E448" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E449" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E450" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="E451" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E452" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E453" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E454" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="E455" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E456" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="E457" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E458" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="E459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E460" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="E461" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="E462" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="E463" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E464" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E465" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E466" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E467" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="E468" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E469" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="E470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="E471" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="E472" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E473" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E475" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E476" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="E477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="E478" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E479" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E480" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E481" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E482" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E483" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E484" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E485" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E486" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E487" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E488" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E489" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E490" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D491" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E491" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D492" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E492" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E493" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D494" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E494" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D495" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E495" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E496" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E497" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D498" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E498" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E499" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E500" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D501" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E501" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E502" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E503" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B504" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E504" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E505" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E506" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E507" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E508" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E509" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E510" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E511" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
